--- a/tableau.xlsx
+++ b/tableau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elyes\Downloads\portfolio-main\portfolio-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573EB49-477C-4100-A523-1F46C49BEE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5884A067-6C03-4C98-96C7-7EE68DF8628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -177,62 +177,24 @@
     <t>X SLAM</t>
   </si>
   <si>
-    <t>Assurer le respect des règles d'utilisation des ressources numériques lors de l'intégration de contenus, de la sélection de plugins, et de la configuration du site./Recueillir les demandes des utilisateurs en termes de fonctionnalités et de contenus pour les sites web.</t>
-  </si>
-  <si>
     <t>B1.1.6</t>
   </si>
   <si>
-    <t>B1.2.1</t>
-  </si>
-  <si>
-    <t>Répondre aux demandes des utilisateurs concernant la navigation sur les sites web, l'accès aux fonctionnalités, et fournir un support technique / Contribuer à l'évolution des sites web en fonction des besoins identifiés et des objectifs de l'organisation.</t>
-  </si>
-  <si>
     <t>B1.2.2</t>
   </si>
   <si>
-    <t>B1.3.3</t>
-  </si>
-  <si>
-    <t>Définir les objectifs du projet de création et de référencement des sites web.
-Planifier les activités en fonction des échéances et des ressources disponibles.</t>
-  </si>
-  <si>
     <t>B1.4.1</t>
   </si>
   <si>
-    <t>Tester le bon fonctionnement des différentes fonctionnalités du site web avant son déploiement./ Fournir une assistance aux utilisateurs pour l'utilisation et la gestion des sites web.</t>
-  </si>
-  <si>
-    <t>B1.5.1 / B1.5.3</t>
-  </si>
-  <si>
-    <t>Acquérir des connaissances sur les normes et standards en matière de développement de mods et de scripts de jeu.
-Suivre les bonnes pratiques de développement et les normes spécifiques au jeu pour assurer la compatibilité et la qualité des mods créés.</t>
-  </si>
-  <si>
     <t>B1.1.2</t>
   </si>
   <si>
-    <t>Configurer les autorisations et les niveaux d'accès aux ressources nécessaires pour le développement et le déploiement des mods.
-Vérifier régulièrement les niveaux d'habilitation pour garantir que seules les personnes autorisées ont accès aux ressources et aux outils du projet.</t>
-  </si>
-  <si>
     <t>B1.1.3</t>
   </si>
   <si>
-    <t>Mettre en place des procédures de sauvegarde des scripts et des données du serveur de jeu pour prévenir la perte de données en cas de problème.
-Assurer la régularité des sauvegardes et vérifier leur bon fonctionnement pour garantir la disponibilité et l'intégrité des données.</t>
-  </si>
-  <si>
     <t>B1.1.5</t>
   </si>
   <si>
-    <t>Tester les scripts et les modifications apportées aux comportements du jeu pour s'assurer de leur bon fonctionnement et de leur intégration harmonieuse.
-Effectuer des tests d'acceptation pour valider les fonctionnalités ajoutées ou modifiées avant leur déploiement en production.</t>
-  </si>
-  <si>
     <t>B1.5.1</t>
   </si>
   <si>
@@ -251,7 +213,44 @@
     <t>analyse et réferencement pour alicefelumenmagicienne.fr</t>
   </si>
   <si>
-    <t>B1.1.1/ B1.3.3 /B1.1.5</t>
+    <t>B1.1.1/  /B1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fournir un support technique et détail spécifique </t>
+  </si>
+  <si>
+    <t>B1.3.2</t>
+  </si>
+  <si>
+    <t>Assurer le respect des règles d'utilisation des ressources numériques  (intégration de contenus, sélection de plugins, configuration du site).</t>
+  </si>
+  <si>
+    <t>Définir les objectifs du projet de création et de référencement des sites web.</t>
+  </si>
+  <si>
+    <t>Test bon fonctionnement des différentes fonctionnalités du site web avant déploiement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1.5.1 </t>
+  </si>
+  <si>
+    <t>Assimilation des normes de développement de mods et de scripts de jeu -&gt; garantir leur compatibilité et qualité.</t>
+  </si>
+  <si>
+    <t>Configurer les autorisations, vérifier le maintiens la sécurité des accès.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> procédures de sauvegarde des scripts </t>
+  </si>
+  <si>
+    <t>Test des scripts 
+ tests d'acceptation (sur autre pc)</t>
+  </si>
+  <si>
+    <t>Projet web service</t>
+  </si>
+  <si>
+    <t>B1.5.2</t>
   </si>
 </sst>
 </file>
@@ -336,7 +335,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,12 +835,48 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -865,44 +901,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AQ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1229,56 +1232,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="51"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1290,22 +1293,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -1328,8 +1331,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="27" t="s">
         <v>16</v>
       </c>
@@ -1385,16 +1388,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1479,7 +1482,7 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="8"/>
@@ -1528,7 +1531,7 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8"/>
@@ -1577,7 +1580,7 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="8"/>
@@ -1676,11 +1679,11 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="22"/>
@@ -1724,13 +1727,17 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="53" t="s">
+        <v>62</v>
+      </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1904,16 +1911,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1999,14 +2006,16 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="30" t="s">
-        <v>62</v>
+      <c r="C21" s="52" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
@@ -2048,15 +2057,13 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -2099,16 +2106,14 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
@@ -2150,14 +2155,14 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
@@ -2199,7 +2204,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
@@ -2207,7 +2212,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25"/>
@@ -2292,16 +2297,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2387,11 +2392,11 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2436,11 +2441,11 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2485,11 +2490,11 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2534,7 +2539,7 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
@@ -2542,7 +2547,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32"/>
@@ -2583,7 +2588,7 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="15"/>
@@ -2591,7 +2596,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33"/>
@@ -2747,6 +2752,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2754,11 +2764,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2769,6 +2774,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="07ce9906-2010-497a-a1a4-b77ce3020425" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3B3A4F7AF0524468A0122AE5CAC3A63" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="14943a38f3f75424c2662de040ab2b6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07ce9906-2010-497a-a1a4-b77ce3020425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801fbb00e2f7f63a195595bf049f6f31" ns2:_="">
     <xsd:import namespace="07ce9906-2010-497a-a1a4-b77ce3020425"/>
@@ -2918,14 +2931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="07ce9906-2010-497a-a1a4-b77ce3020425" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2936,6 +2941,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07ce9906-2010-497a-a1a4-b77ce3020425"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3EFDB4B-60C8-40D1-8545-C8397AE88ACB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2953,16 +2968,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07ce9906-2010-497a-a1a4-b77ce3020425"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
   <ds:schemaRefs>
